--- a/4.Teste/CONIM - Roteiro de Teste.xlsx
+++ b/4.Teste/CONIM - Roteiro de Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosag\Documents\CONIM_ContractImovel\4.Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{242A2C96-2148-486C-85CE-9A6A3CB9F5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C54D2A-C38B-4AC0-9A51-F69F97FC94F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="913" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -1093,6 +1093,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,20 +1126,8 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1601,18 +1601,18 @@
     <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
@@ -1654,9 +1654,7 @@
       <c r="G5" s="20">
         <v>3</v>
       </c>
-      <c r="H5" s="20">
-        <v>0</v>
-      </c>
+      <c r="H5" s="20"/>
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1673,9 +1671,7 @@
       <c r="G6" s="20">
         <v>3</v>
       </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
+      <c r="H6" s="20"/>
       <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1938,31 +1934,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="46">
         <v>5</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,31 +2237,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="46">
         <v>4</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6ECDD0-8143-4D57-A78B-7D4A5A5E0FA4}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
@@ -2540,31 +2536,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="46">
         <v>5</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2735,7 +2731,7 @@
       <c r="C13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="41" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -2803,28 +2799,28 @@
       <c r="G19" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="46"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="46"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="47"/>
+      <c r="D25" s="50"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="47"/>
+      <c r="D26" s="50"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="48"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="48"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="47"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="47"/>
+      <c r="D30" s="50"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2867,31 +2863,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="46">
         <v>5</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,7 +3017,7 @@
       <c r="D11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="14">
@@ -3168,31 +3164,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="46">
         <v>6</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
